--- a/KOMPEGE/block 18/18_8428.xlsx
+++ b/KOMPEGE/block 18/18_8428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕГЭ\2023\2023-04 ТР5\Файлы ТР5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D45EED-248D-45A5-AE51-231A9C90C7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D1CD9-EEFB-4FFE-925B-AF6F934C707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-15525" windowWidth="19530" windowHeight="15690" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
+    <workbookView xWindow="10965" yWindow="2220" windowWidth="33825" windowHeight="18780" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="6" r:id="rId1"/>
@@ -477,18 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B0D428-36C2-45C8-9DE7-D0C0F5BEA535}">
-  <dimension ref="B1:P16"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="16" width="4.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>47</v>
       </c>
@@ -535,7 +538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>33</v>
       </c>
@@ -582,7 +585,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>15</v>
       </c>
@@ -629,7 +632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>84</v>
       </c>
@@ -676,7 +679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>92</v>
       </c>
@@ -723,7 +726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>44</v>
       </c>
@@ -770,7 +773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>79</v>
       </c>
@@ -817,7 +820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>57</v>
       </c>
@@ -864,7 +867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>53</v>
       </c>
@@ -911,7 +914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -958,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>22</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>77</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>25</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>6</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>61</v>
       </c>
@@ -1191,6 +1194,943 @@
       </c>
       <c r="P16" s="9">
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" ref="B18:B30" si="0">ABS(B3-B2)+B19</f>
+        <v>531</v>
+      </c>
+      <c r="C18" s="5">
+        <f>MIN(B18+ABS(C2-B2),C19+ABS(C2-C3))</f>
+        <v>526</v>
+      </c>
+      <c r="D18" s="5">
+        <f>MIN(C18+ABS(D2-C2),D19+ABS(D2-D3))</f>
+        <v>476</v>
+      </c>
+      <c r="E18" s="5">
+        <f>MIN(D18+ABS(E2-D2),E19+ABS(E2-E3))</f>
+        <v>469</v>
+      </c>
+      <c r="F18" s="5">
+        <f>MIN(E18+ABS(F2-E2),F19+ABS(F2-F3))</f>
+        <v>448</v>
+      </c>
+      <c r="G18" s="5">
+        <f>MIN(F18+ABS(G2-F2),G19+ABS(G2-G3))</f>
+        <v>467</v>
+      </c>
+      <c r="H18" s="5">
+        <f>MIN(G18+ABS(H2-G2),H19+ABS(H2-H3))</f>
+        <v>474</v>
+      </c>
+      <c r="I18" s="5">
+        <f>MIN(H18+ABS(I2-H2),I19+ABS(I2-I3))</f>
+        <v>443</v>
+      </c>
+      <c r="J18" s="5">
+        <f>MIN(I18+ABS(J2-I2),J19+ABS(J2-J3))</f>
+        <v>478</v>
+      </c>
+      <c r="K18" s="5">
+        <f>MIN(J18+ABS(K2-J2),K19+ABS(K2-K3))</f>
+        <v>560</v>
+      </c>
+      <c r="L18" s="5">
+        <f>MIN(K18+ABS(L2-K2),L19+ABS(L2-L3))</f>
+        <v>552</v>
+      </c>
+      <c r="M18" s="5">
+        <f>MIN(L18+ABS(M2-L2),M19+ABS(M2-M3))</f>
+        <v>526</v>
+      </c>
+      <c r="N18" s="5">
+        <f>MIN(M18+ABS(N2-M2),N19+ABS(N2-N3))</f>
+        <v>565</v>
+      </c>
+      <c r="O18" s="5">
+        <f>MIN(N18+ABS(O2-N2),O19+ABS(O2-O3))</f>
+        <v>499</v>
+      </c>
+      <c r="P18" s="5">
+        <f>MIN(O18+ABS(P2-O2),P19+ABS(P2-P3))</f>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
+      <c r="C19" s="5">
+        <f>MIN(B19+ABS(C3-B3),C20+ABS(C3-C4))</f>
+        <v>458</v>
+      </c>
+      <c r="D19" s="5">
+        <f>MIN(C19+ABS(D3-C3),D20+ABS(D3-D4))</f>
+        <v>461</v>
+      </c>
+      <c r="E19" s="5">
+        <f>MIN(D19+ABS(E3-D3),E20+ABS(E3-E4))</f>
+        <v>454</v>
+      </c>
+      <c r="F19" s="5">
+        <f>MIN(E19+ABS(F3-E3),F20+ABS(F3-F4))</f>
+        <v>432</v>
+      </c>
+      <c r="G19" s="5">
+        <f>MIN(F19+ABS(G3-F3),G20+ABS(G3-G4))</f>
+        <v>455</v>
+      </c>
+      <c r="H19" s="5">
+        <f>MIN(G19+ABS(H3-G3),H20+ABS(H3-H4))</f>
+        <v>478</v>
+      </c>
+      <c r="I19" s="5">
+        <f>MIN(H19+ABS(I3-H3),I20+ABS(I3-I4))</f>
+        <v>415</v>
+      </c>
+      <c r="J19" s="5">
+        <f>MIN(I19+ABS(J3-I3),J20+ABS(J3-J4))</f>
+        <v>428</v>
+      </c>
+      <c r="K19" s="5">
+        <f>MIN(J19+ABS(K3-J3),K20+ABS(K3-K4))</f>
+        <v>497</v>
+      </c>
+      <c r="L19" s="5">
+        <f>MIN(K19+ABS(L3-K3),L20+ABS(L3-L4))</f>
+        <v>498</v>
+      </c>
+      <c r="M19" s="5">
+        <f>MIN(L19+ABS(M3-L3),M20+ABS(M3-M4))</f>
+        <v>521</v>
+      </c>
+      <c r="N19" s="5">
+        <f>MIN(M19+ABS(N3-M3),N20+ABS(N3-N4))</f>
+        <v>564</v>
+      </c>
+      <c r="O19" s="5">
+        <f>MIN(N19+ABS(O3-N3),O20+ABS(O3-O4))</f>
+        <v>473</v>
+      </c>
+      <c r="P19" s="5">
+        <f>MIN(O19+ABS(P3-O3),P20+ABS(P3-P4))</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="C20" s="5">
+        <f>MIN(B20+ABS(C4-B4),C21+ABS(C4-C5))</f>
+        <v>407</v>
+      </c>
+      <c r="D20" s="5">
+        <f>MIN(C20+ABS(D4-C4),D21+ABS(D4-D5))</f>
+        <v>411</v>
+      </c>
+      <c r="E20" s="5">
+        <f>MIN(D20+ABS(E4-D4),E21+ABS(E4-E5))</f>
+        <v>438</v>
+      </c>
+      <c r="F20" s="5">
+        <f>MIN(E20+ABS(F4-E4),F21+ABS(F4-F5))</f>
+        <v>411</v>
+      </c>
+      <c r="G20" s="5">
+        <f>MIN(F20+ABS(G4-F4),G21+ABS(G4-G5))</f>
+        <v>445</v>
+      </c>
+      <c r="H20" s="5">
+        <f>MIN(G20+ABS(H4-G4),H21+ABS(H4-H5))</f>
+        <v>451</v>
+      </c>
+      <c r="I20" s="5">
+        <f>MIN(H20+ABS(I4-H4),I21+ABS(I4-I5))</f>
+        <v>404</v>
+      </c>
+      <c r="J20" s="5">
+        <f>MIN(I20+ABS(J4-I4),J21+ABS(J4-J5))</f>
+        <v>468</v>
+      </c>
+      <c r="K20" s="5">
+        <f>MIN(J20+ABS(K4-J4),K21+ABS(K4-K5))</f>
+        <v>529</v>
+      </c>
+      <c r="L20" s="5">
+        <f>MIN(K20+ABS(L4-K4),L21+ABS(L4-L5))</f>
+        <v>439</v>
+      </c>
+      <c r="M20" s="5">
+        <f>MIN(L20+ABS(M4-L4),M21+ABS(M4-M5))</f>
+        <v>462</v>
+      </c>
+      <c r="N20" s="5">
+        <f>MIN(M20+ABS(N4-M4),N21+ABS(N4-N5))</f>
+        <v>529</v>
+      </c>
+      <c r="O20" s="5">
+        <f>MIN(N20+ABS(O4-N4),O21+ABS(O4-O5))</f>
+        <v>461</v>
+      </c>
+      <c r="P20" s="5">
+        <f>MIN(O20+ABS(P4-O4),P21+ABS(P4-P5))</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="C21" s="5">
+        <f>MIN(B21+ABS(C5-B5),C22+ABS(C5-C6))</f>
+        <v>403</v>
+      </c>
+      <c r="D21" s="5">
+        <f>MIN(C21+ABS(D5-C5),D22+ABS(D5-D6))</f>
+        <v>406</v>
+      </c>
+      <c r="E21" s="5">
+        <f>MIN(D21+ABS(E5-D5),E22+ABS(E5-E6))</f>
+        <v>423</v>
+      </c>
+      <c r="F21" s="5">
+        <f>MIN(E21+ABS(F5-E5),F22+ABS(F5-F6))</f>
+        <v>374</v>
+      </c>
+      <c r="G21" s="5">
+        <f>MIN(F21+ABS(G5-F5),G22+ABS(G5-G6))</f>
+        <v>391</v>
+      </c>
+      <c r="H21" s="5">
+        <f>MIN(G21+ABS(H5-G5),H22+ABS(H5-H6))</f>
+        <v>387</v>
+      </c>
+      <c r="I21" s="5">
+        <f>MIN(H21+ABS(I5-H5),I22+ABS(I5-I6))</f>
+        <v>395</v>
+      </c>
+      <c r="J21" s="5">
+        <f>MIN(I21+ABS(J5-I5),J22+ABS(J5-J6))</f>
+        <v>464</v>
+      </c>
+      <c r="K21" s="5">
+        <f>MIN(J21+ABS(K5-J5),K22+ABS(K5-K6))</f>
+        <v>465</v>
+      </c>
+      <c r="L21" s="5">
+        <f>MIN(K21+ABS(L5-K5),L22+ABS(L5-L6))</f>
+        <v>423</v>
+      </c>
+      <c r="M21" s="5">
+        <f>MIN(L21+ABS(M5-L5),M22+ABS(M5-M6))</f>
+        <v>458</v>
+      </c>
+      <c r="N21" s="5">
+        <f>MIN(M21+ABS(N5-M5),N22+ABS(N5-N6))</f>
+        <v>461</v>
+      </c>
+      <c r="O21" s="5">
+        <f>MIN(N21+ABS(O5-N5),O22+ABS(O5-O6))</f>
+        <v>436</v>
+      </c>
+      <c r="P21" s="5">
+        <f>MIN(O21+ABS(P5-O5),P22+ABS(P5-P6))</f>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="C22" s="5">
+        <f>MIN(B22+ABS(C6-B6),C23+ABS(C6-C7))</f>
+        <v>374</v>
+      </c>
+      <c r="D22" s="5">
+        <f>MIN(C22+ABS(D6-C6),D23+ABS(D6-D7))</f>
+        <v>386</v>
+      </c>
+      <c r="E22" s="5">
+        <f>MIN(D22+ABS(E6-D6),E23+ABS(E6-E7))</f>
+        <v>378</v>
+      </c>
+      <c r="F22" s="5">
+        <f>MIN(E22+ABS(F6-E6),F23+ABS(F6-F7))</f>
+        <v>344</v>
+      </c>
+      <c r="G22" s="5">
+        <f>MIN(F22+ABS(G6-F6),G23+ABS(G6-G7))</f>
+        <v>379</v>
+      </c>
+      <c r="H22" s="5">
+        <f>MIN(G22+ABS(H6-G6),H23+ABS(H6-H7))</f>
+        <v>382</v>
+      </c>
+      <c r="I22" s="5">
+        <f>MIN(H22+ABS(I6-H6),I23+ABS(I6-I7))</f>
+        <v>388</v>
+      </c>
+      <c r="J22" s="5">
+        <f>MIN(I22+ABS(J6-I6),J23+ABS(J6-J7))</f>
+        <v>396</v>
+      </c>
+      <c r="K22" s="5">
+        <f>MIN(J22+ABS(K6-J6),K23+ABS(K6-K7))</f>
+        <v>398</v>
+      </c>
+      <c r="L22" s="5">
+        <f>MIN(K22+ABS(L6-K6),L23+ABS(L6-L7))</f>
+        <v>411</v>
+      </c>
+      <c r="M22" s="5">
+        <f>MIN(L22+ABS(M6-L6),M23+ABS(M6-M7))</f>
+        <v>438</v>
+      </c>
+      <c r="N22" s="5">
+        <f>MIN(M22+ABS(N6-M6),N23+ABS(N6-N7))</f>
+        <v>435</v>
+      </c>
+      <c r="O22" s="5">
+        <f>MIN(N22+ABS(O6-N6),O23+ABS(O6-O7))</f>
+        <v>435</v>
+      </c>
+      <c r="P22" s="5">
+        <f>MIN(O22+ABS(P6-O6),P23+ABS(P6-P7))</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="C23" s="5">
+        <f>MIN(B23+ABS(C7-B7),C24+ABS(C7-C8))</f>
+        <v>358</v>
+      </c>
+      <c r="D23" s="5">
+        <f>MIN(C23+ABS(D7-C7),D24+ABS(D7-D8))</f>
+        <v>363</v>
+      </c>
+      <c r="E23" s="5">
+        <f>MIN(D23+ABS(E7-D7),E24+ABS(E7-E8))</f>
+        <v>345</v>
+      </c>
+      <c r="F23" s="5">
+        <f>MIN(E23+ABS(F7-E7),F24+ABS(F7-F8))</f>
+        <v>335</v>
+      </c>
+      <c r="G23" s="5">
+        <f>MIN(F23+ABS(G7-F7),G24+ABS(G7-G8))</f>
+        <v>366</v>
+      </c>
+      <c r="H23" s="5">
+        <f>MIN(G23+ABS(H7-G7),H24+ABS(H7-H8))</f>
+        <v>380</v>
+      </c>
+      <c r="I23" s="5">
+        <f>MIN(H23+ABS(I7-H7),I24+ABS(I7-I8))</f>
+        <v>366</v>
+      </c>
+      <c r="J23" s="5">
+        <f>MIN(I23+ABS(J7-I7),J24+ABS(J7-J8))</f>
+        <v>419</v>
+      </c>
+      <c r="K23" s="5">
+        <f>MIN(J23+ABS(K7-J7),K24+ABS(K7-K8))</f>
+        <v>379</v>
+      </c>
+      <c r="L23" s="5">
+        <f>MIN(K23+ABS(L7-K7),L24+ABS(L7-L8))</f>
+        <v>392</v>
+      </c>
+      <c r="M23" s="5">
+        <f>MIN(L23+ABS(M7-L7),M24+ABS(M7-M8))</f>
+        <v>392</v>
+      </c>
+      <c r="N23" s="5">
+        <f>MIN(M23+ABS(N7-M7),N24+ABS(N7-N8))</f>
+        <v>418</v>
+      </c>
+      <c r="O23" s="5">
+        <f>MIN(N23+ABS(O7-N7),O24+ABS(O7-O8))</f>
+        <v>423</v>
+      </c>
+      <c r="P23" s="5">
+        <f>MIN(O23+ABS(P7-O7),P24+ABS(P7-P8))</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="C24" s="5">
+        <f>MIN(B24+ABS(C8-B8),C25+ABS(C8-C9))</f>
+        <v>341</v>
+      </c>
+      <c r="D24" s="5">
+        <f>MIN(C24+ABS(D8-C8),D25+ABS(D8-D9))</f>
+        <v>342</v>
+      </c>
+      <c r="E24" s="5">
+        <f>MIN(D24+ABS(E8-D8),E25+ABS(E8-E9))</f>
+        <v>316</v>
+      </c>
+      <c r="F24" s="5">
+        <f>MIN(E24+ABS(F8-E8),F25+ABS(F8-F9))</f>
+        <v>326</v>
+      </c>
+      <c r="G24" s="5">
+        <f>MIN(F24+ABS(G8-F8),G25+ABS(G8-G9))</f>
+        <v>314</v>
+      </c>
+      <c r="H24" s="5">
+        <f>MIN(G24+ABS(H8-G8),H25+ABS(H8-H9))</f>
+        <v>344</v>
+      </c>
+      <c r="I24" s="5">
+        <f>MIN(H24+ABS(I8-H8),I25+ABS(I8-I9))</f>
+        <v>341</v>
+      </c>
+      <c r="J24" s="5">
+        <f>MIN(I24+ABS(J8-I8),J25+ABS(J8-J9))</f>
+        <v>399</v>
+      </c>
+      <c r="K24" s="5">
+        <f>MIN(J24+ABS(K8-J8),K25+ABS(K8-K9))</f>
+        <v>367</v>
+      </c>
+      <c r="L24" s="5">
+        <f>MIN(K24+ABS(L8-K8),L25+ABS(L8-L9))</f>
+        <v>390</v>
+      </c>
+      <c r="M24" s="5">
+        <f>MIN(L24+ABS(M8-L8),M25+ABS(M8-M9))</f>
+        <v>458</v>
+      </c>
+      <c r="N24" s="5">
+        <f>MIN(M24+ABS(N8-M8),N25+ABS(N8-N9))</f>
+        <v>461</v>
+      </c>
+      <c r="O24" s="5">
+        <f>MIN(N24+ABS(O8-N8),O25+ABS(O8-O9))</f>
+        <v>434</v>
+      </c>
+      <c r="P24" s="5">
+        <f>MIN(O24+ABS(P8-O8),P25+ABS(P8-P9))</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+      <c r="C25" s="5">
+        <f>MIN(B25+ABS(C9-B9),C26+ABS(C9-C10))</f>
+        <v>360</v>
+      </c>
+      <c r="D25" s="5">
+        <f>MIN(C25+ABS(D9-C9),D26+ABS(D9-D10))</f>
+        <v>307</v>
+      </c>
+      <c r="E25" s="5">
+        <f>MIN(D25+ABS(E9-D9),E26+ABS(E9-E10))</f>
+        <v>299</v>
+      </c>
+      <c r="F25" s="5">
+        <f>MIN(E25+ABS(F9-E9),F26+ABS(F9-F10))</f>
+        <v>296</v>
+      </c>
+      <c r="G25" s="5">
+        <f>MIN(F25+ABS(G9-F9),G26+ABS(G9-G10))</f>
+        <v>296</v>
+      </c>
+      <c r="H25" s="5">
+        <f>MIN(G25+ABS(H9-G9),H26+ABS(H9-H10))</f>
+        <v>334</v>
+      </c>
+      <c r="I25" s="5">
+        <f>MIN(H25+ABS(I9-H9),I26+ABS(I9-I10))</f>
+        <v>324</v>
+      </c>
+      <c r="J25" s="5">
+        <f>MIN(I25+ABS(J9-I9),J26+ABS(J9-J10))</f>
+        <v>325</v>
+      </c>
+      <c r="K25" s="5">
+        <f>MIN(J25+ABS(K9-J9),K26+ABS(K9-K10))</f>
+        <v>337</v>
+      </c>
+      <c r="L25" s="5">
+        <f>MIN(K25+ABS(L9-K9),L26+ABS(L9-L10))</f>
+        <v>344</v>
+      </c>
+      <c r="M25" s="5">
+        <f>MIN(L25+ABS(M9-L9),M26+ABS(M9-M10))</f>
+        <v>387</v>
+      </c>
+      <c r="N25" s="5">
+        <f>MIN(M25+ABS(N9-M9),N26+ABS(N9-N10))</f>
+        <v>431</v>
+      </c>
+      <c r="O25" s="5">
+        <f>MIN(N25+ABS(O9-N9),O26+ABS(O9-O10))</f>
+        <v>421</v>
+      </c>
+      <c r="P25" s="5">
+        <f>MIN(O25+ABS(P9-O9),P26+ABS(P9-P10))</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="C26" s="5">
+        <f>MIN(B26+ABS(C10-B10),C27+ABS(C10-C11))</f>
+        <v>329</v>
+      </c>
+      <c r="D26" s="5">
+        <f>MIN(C26+ABS(D10-C10),D27+ABS(D10-D11))</f>
+        <v>291</v>
+      </c>
+      <c r="E26" s="5">
+        <f>MIN(D26+ABS(E10-D10),E27+ABS(E10-E11))</f>
+        <v>257</v>
+      </c>
+      <c r="F26" s="5">
+        <f>MIN(E26+ABS(F10-E10),F27+ABS(F10-F11))</f>
+        <v>286</v>
+      </c>
+      <c r="G26" s="5">
+        <f>MIN(F26+ABS(G10-F10),G27+ABS(G10-G11))</f>
+        <v>300</v>
+      </c>
+      <c r="H26" s="5">
+        <f>MIN(G26+ABS(H10-G10),H27+ABS(H10-H11))</f>
+        <v>346</v>
+      </c>
+      <c r="I26" s="5">
+        <f>MIN(H26+ABS(I10-H10),I27+ABS(I10-I11))</f>
+        <v>306</v>
+      </c>
+      <c r="J26" s="5">
+        <f>MIN(I26+ABS(J10-I10),J27+ABS(J10-J11))</f>
+        <v>328</v>
+      </c>
+      <c r="K26" s="5">
+        <f>MIN(J26+ABS(K10-J10),K27+ABS(K10-K11))</f>
+        <v>337</v>
+      </c>
+      <c r="L26" s="5">
+        <f>MIN(K26+ABS(L10-K10),L27+ABS(L10-L11))</f>
+        <v>350</v>
+      </c>
+      <c r="M26" s="5">
+        <f>MIN(L26+ABS(M10-L10),M27+ABS(M10-M11))</f>
+        <v>360</v>
+      </c>
+      <c r="N26" s="5">
+        <f>MIN(M26+ABS(N10-M10),N27+ABS(N10-N11))</f>
+        <v>362</v>
+      </c>
+      <c r="O26" s="5">
+        <f>MIN(N26+ABS(O10-N10),O27+ABS(O10-O11))</f>
+        <v>411</v>
+      </c>
+      <c r="P26" s="5">
+        <f>MIN(O26+ABS(P10-O10),P27+ABS(P10-P11))</f>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="C27" s="5">
+        <f>MIN(B27+ABS(C11-B11),C28+ABS(C11-C12))</f>
+        <v>314</v>
+      </c>
+      <c r="D27" s="5">
+        <f>MIN(C27+ABS(D11-C11),D28+ABS(D11-D12))</f>
+        <v>249</v>
+      </c>
+      <c r="E27" s="5">
+        <f>MIN(D27+ABS(E11-D11),E28+ABS(E11-E12))</f>
+        <v>257</v>
+      </c>
+      <c r="F27" s="5">
+        <f>MIN(E27+ABS(F11-E11),F28+ABS(F11-F12))</f>
+        <v>289</v>
+      </c>
+      <c r="G27" s="5">
+        <f>MIN(F27+ABS(G11-F11),G28+ABS(G11-G12))</f>
+        <v>274</v>
+      </c>
+      <c r="H27" s="5">
+        <f>MIN(G27+ABS(H11-G11),H28+ABS(H11-H12))</f>
+        <v>305</v>
+      </c>
+      <c r="I27" s="5">
+        <f>MIN(H27+ABS(I11-H11),I28+ABS(I11-I12))</f>
+        <v>298</v>
+      </c>
+      <c r="J27" s="5">
+        <f>MIN(I27+ABS(J11-I11),J28+ABS(J11-J12))</f>
+        <v>314</v>
+      </c>
+      <c r="K27" s="5">
+        <f>MIN(J27+ABS(K11-J11),K28+ABS(K11-K12))</f>
+        <v>323</v>
+      </c>
+      <c r="L27" s="5">
+        <f>MIN(K27+ABS(L11-K11),L28+ABS(L11-L12))</f>
+        <v>321</v>
+      </c>
+      <c r="M27" s="5">
+        <f>MIN(L27+ABS(M11-L11),M28+ABS(M11-M12))</f>
+        <v>328</v>
+      </c>
+      <c r="N27" s="5">
+        <f>MIN(M27+ABS(N11-M11),N28+ABS(N11-N12))</f>
+        <v>335</v>
+      </c>
+      <c r="O27" s="5">
+        <f>MIN(N27+ABS(O11-N11),O28+ABS(O11-O12))</f>
+        <v>371</v>
+      </c>
+      <c r="P27" s="5">
+        <f>MIN(O27+ABS(P11-O11),P28+ABS(P11-P12))</f>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="C28" s="5">
+        <f>MIN(B28+ABS(C12-B12),C29+ABS(C12-C13))</f>
+        <v>243</v>
+      </c>
+      <c r="D28" s="5">
+        <f>MIN(C28+ABS(D12-C12),D29+ABS(D12-D13))</f>
+        <v>248</v>
+      </c>
+      <c r="E28" s="5">
+        <f>MIN(D28+ABS(E12-D12),E29+ABS(E12-E13))</f>
+        <v>255</v>
+      </c>
+      <c r="F28" s="5">
+        <f>MIN(E28+ABS(F12-E12),F29+ABS(F12-F13))</f>
+        <v>267</v>
+      </c>
+      <c r="G28" s="5">
+        <f>MIN(F28+ABS(G12-F12),G29+ABS(G12-G13))</f>
+        <v>262</v>
+      </c>
+      <c r="H28" s="5">
+        <f>MIN(G28+ABS(H12-G12),H29+ABS(H12-H13))</f>
+        <v>272</v>
+      </c>
+      <c r="I28" s="5">
+        <f>MIN(H28+ABS(I12-H12),I29+ABS(I12-I13))</f>
+        <v>253</v>
+      </c>
+      <c r="J28" s="5">
+        <f>MIN(I28+ABS(J12-I12),J29+ABS(J12-J13))</f>
+        <v>276</v>
+      </c>
+      <c r="K28" s="5">
+        <f>MIN(J28+ABS(K12-J12),K29+ABS(K12-K13))</f>
+        <v>332</v>
+      </c>
+      <c r="L28" s="5">
+        <f>MIN(K28+ABS(L12-K12),L29+ABS(L12-L13))</f>
+        <v>299</v>
+      </c>
+      <c r="M28" s="5">
+        <f>MIN(L28+ABS(M12-L12),M29+ABS(M12-M13))</f>
+        <v>340</v>
+      </c>
+      <c r="N28" s="5">
+        <f>MIN(M28+ABS(N12-M12),N29+ABS(N12-N13))</f>
+        <v>342</v>
+      </c>
+      <c r="O28" s="5">
+        <f>MIN(N28+ABS(O12-N12),O29+ABS(O12-O13))</f>
+        <v>409</v>
+      </c>
+      <c r="P28" s="5">
+        <f>MIN(O28+ABS(P12-O12),P29+ABS(P12-P13))</f>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="C29" s="5">
+        <f>MIN(B29+ABS(C13-B13),C30+ABS(C13-C14))</f>
+        <v>254</v>
+      </c>
+      <c r="D29" s="5">
+        <f>MIN(C29+ABS(D13-C13),D30+ABS(D13-D14))</f>
+        <v>216</v>
+      </c>
+      <c r="E29" s="5">
+        <f>MIN(D29+ABS(E13-D13),E30+ABS(E13-E14))</f>
+        <v>183</v>
+      </c>
+      <c r="F29" s="5">
+        <f>MIN(E29+ABS(F13-E13),F30+ABS(F13-F14))</f>
+        <v>221</v>
+      </c>
+      <c r="G29" s="5">
+        <f>MIN(F29+ABS(G13-F13),G30+ABS(G13-G14))</f>
+        <v>247</v>
+      </c>
+      <c r="H29" s="5">
+        <f>MIN(G29+ABS(H13-G13),H30+ABS(H13-H14))</f>
+        <v>222</v>
+      </c>
+      <c r="I29" s="5">
+        <f>MIN(H29+ABS(I13-H13),I30+ABS(I13-I14))</f>
+        <v>238</v>
+      </c>
+      <c r="J29" s="5">
+        <f>MIN(I29+ABS(J13-I13),J30+ABS(J13-J14))</f>
+        <v>263</v>
+      </c>
+      <c r="K29" s="5">
+        <f>MIN(J29+ABS(K13-J13),K30+ABS(K13-K14))</f>
+        <v>287</v>
+      </c>
+      <c r="L29" s="5">
+        <f>MIN(K29+ABS(L13-K13),L30+ABS(L13-L14))</f>
+        <v>288</v>
+      </c>
+      <c r="M29" s="5">
+        <f>MIN(L29+ABS(M13-L13),M30+ABS(M13-M14))</f>
+        <v>321</v>
+      </c>
+      <c r="N29" s="5">
+        <f>MIN(M29+ABS(N13-M13),N30+ABS(N13-N14))</f>
+        <v>384</v>
+      </c>
+      <c r="O29" s="5">
+        <f>MIN(N29+ABS(O13-N13),O30+ABS(O13-O14))</f>
+        <v>409</v>
+      </c>
+      <c r="P29" s="5">
+        <f>MIN(O29+ABS(P13-O13),P30+ABS(P13-P14))</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C30" s="5">
+        <f>MIN(B30+ABS(C14-B14),C31+ABS(C14-C15))</f>
+        <v>198</v>
+      </c>
+      <c r="D30" s="5">
+        <f>MIN(C30+ABS(D14-C14),D31+ABS(D14-D15))</f>
+        <v>178</v>
+      </c>
+      <c r="E30" s="5">
+        <f>MIN(D30+ABS(E14-D14),E31+ABS(E14-E15))</f>
+        <v>131</v>
+      </c>
+      <c r="F30" s="5">
+        <f>MIN(E30+ABS(F14-E14),F31+ABS(F14-F15))</f>
+        <v>175</v>
+      </c>
+      <c r="G30" s="5">
+        <f>MIN(F30+ABS(G14-F14),G31+ABS(G14-G15))</f>
+        <v>199</v>
+      </c>
+      <c r="H30" s="5">
+        <f>MIN(G30+ABS(H14-G14),H31+ABS(H14-H15))</f>
+        <v>218</v>
+      </c>
+      <c r="I30" s="5">
+        <f>MIN(H30+ABS(I14-H14),I31+ABS(I14-I15))</f>
+        <v>246</v>
+      </c>
+      <c r="J30" s="5">
+        <f>MIN(I30+ABS(J14-I14),J31+ABS(J14-J15))</f>
+        <v>249</v>
+      </c>
+      <c r="K30" s="5">
+        <f>MIN(J30+ABS(K14-J14),K31+ABS(K14-K15))</f>
+        <v>326</v>
+      </c>
+      <c r="L30" s="5">
+        <f>MIN(K30+ABS(L14-K14),L31+ABS(L14-L15))</f>
+        <v>336</v>
+      </c>
+      <c r="M30" s="5">
+        <f>MIN(L30+ABS(M14-L14),M31+ABS(M14-M15))</f>
+        <v>393</v>
+      </c>
+      <c r="N30" s="5">
+        <f>MIN(M30+ABS(N14-M14),N31+ABS(N14-N15))</f>
+        <v>400</v>
+      </c>
+      <c r="O30" s="5">
+        <f>MIN(N30+ABS(O14-N14),O31+ABS(O14-O15))</f>
+        <v>396</v>
+      </c>
+      <c r="P30" s="5">
+        <f>MIN(O30+ABS(P14-O14),P31+ABS(P14-P15))</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <f>ABS(B16-B15)+B32</f>
+        <v>116</v>
+      </c>
+      <c r="C31" s="5">
+        <f>MIN(B31+ABS(C15-B15),C32+ABS(C15-C16))</f>
+        <v>116</v>
+      </c>
+      <c r="D31" s="5">
+        <f>MIN(C31+ABS(D15-C15),D32+ABS(D15-D16))</f>
+        <v>119</v>
+      </c>
+      <c r="E31" s="5">
+        <f>MIN(D31+ABS(E15-D15),E32+ABS(E15-E16))</f>
+        <v>125</v>
+      </c>
+      <c r="F31" s="5">
+        <f>MIN(E31+ABS(F15-E15),F32+ABS(F15-F16))</f>
+        <v>125</v>
+      </c>
+      <c r="G31" s="5">
+        <f>MIN(F31+ABS(G15-F15),G32+ABS(G15-G16))</f>
+        <v>194</v>
+      </c>
+      <c r="H31" s="5">
+        <f>MIN(G31+ABS(H15-G15),H32+ABS(H15-H16))</f>
+        <v>229</v>
+      </c>
+      <c r="I31" s="5">
+        <f>MIN(H31+ABS(I15-H15),I32+ABS(I15-I16))</f>
+        <v>230</v>
+      </c>
+      <c r="J31" s="5">
+        <f>MIN(I31+ABS(J15-I15),J32+ABS(J15-J16))</f>
+        <v>278</v>
+      </c>
+      <c r="K31" s="5">
+        <f>MIN(J31+ABS(K15-J15),K32+ABS(K15-K16))</f>
+        <v>337</v>
+      </c>
+      <c r="L31" s="5">
+        <f>MIN(K31+ABS(L15-K15),L32+ABS(L15-L16))</f>
+        <v>326</v>
+      </c>
+      <c r="M31" s="5">
+        <f>MIN(L31+ABS(M15-L15),M32+ABS(M15-M16))</f>
+        <v>349</v>
+      </c>
+      <c r="N31" s="5">
+        <f>MIN(M31+ABS(N15-M15),N32+ABS(N15-N16))</f>
+        <v>362</v>
+      </c>
+      <c r="O31" s="5">
+        <f>MIN(N31+ABS(O15-N15),O32+ABS(O15-O16))</f>
+        <v>389</v>
+      </c>
+      <c r="P31" s="5">
+        <f>MIN(O31+ABS(P15-O15),P32+ABS(P15-P16))</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>61</v>
+      </c>
+      <c r="C32" s="8">
+        <f>ABS(B16-C16)+B32</f>
+        <v>73</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" ref="D32:P32" si="1">ABS(C16-D16)+C32</f>
+        <v>94</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="1"/>
+        <v>402</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="1"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>479</v>
+      </c>
+      <c r="D35">
+        <v>1599</v>
       </c>
     </row>
   </sheetData>
